--- a/doubanmovie/data/数据字典.xlsx
+++ b/doubanmovie/data/数据字典.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12195" tabRatio="833" activeTab="1"/>
+    <workbookView windowWidth="27600" windowHeight="9270" tabRatio="833" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
-    <sheet name="list" sheetId="32" r:id="rId2"/>
-    <sheet name="details" sheetId="31" r:id="rId3"/>
-    <sheet name="starts" sheetId="33" r:id="rId4"/>
+    <sheet name="movie_details" sheetId="31" r:id="rId2"/>
+    <sheet name="movie_starts" sheetId="33" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="tbl_backgroud_feedback_apply">概述!#REF!</definedName>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>表分类</t>
   </si>
@@ -50,12 +49,6 @@
     <t>影人表</t>
   </si>
   <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>电影表</t>
-  </si>
-  <si>
     <t>返回目录</t>
   </si>
   <si>
@@ -98,61 +91,46 @@
     <t>电影类型</t>
   </si>
   <si>
+    <t>releaseTime</t>
+  </si>
+  <si>
+    <t>上映时间及地区</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>电影时长</t>
+  </si>
+  <si>
+    <t>addr</t>
+  </si>
+  <si>
+    <t>上映地区</t>
+  </si>
+  <si>
     <t>rate</t>
   </si>
   <si>
     <t>评分</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>电影链接</t>
-  </si>
-  <si>
-    <t>playable</t>
-  </si>
-  <si>
-    <t>能否播放</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>id</t>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>电影简介</t>
+  </si>
+  <si>
+    <t>VARCHAR(2000)</t>
+  </si>
+  <si>
+    <t>movieId</t>
   </si>
   <si>
     <t>电影id</t>
   </si>
   <si>
-    <t>bigint</t>
-  </si>
-  <si>
-    <t>releaseTime</t>
-  </si>
-  <si>
-    <t>上映时间及地区</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>电影时长</t>
-  </si>
-  <si>
-    <t>addr</t>
-  </si>
-  <si>
-    <t>上映地区</t>
-  </si>
-  <si>
-    <t>introduction</t>
-  </si>
-  <si>
-    <t>电影简介</t>
-  </si>
-  <si>
-    <t>VARCHAR(2000)</t>
+    <t>BIGINT</t>
   </si>
   <si>
     <t>name</t>
@@ -172,10 +150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -214,22 +192,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,51 +245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,25 +259,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,187 +342,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,17 +575,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,11 +593,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,26 +623,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,21 +672,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -702,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,16 +692,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,112 +713,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,7 +1178,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D2:D4"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1249,19 +1227,14 @@
     </row>
     <row r="4" ht="14.25" spans="1:4">
       <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" location="details!A1" display="详情表"/>
-    <hyperlink ref="C3" location="starts!A1" display="影人表"/>
-    <hyperlink ref="C4" location="list!A1" display="电影表"/>
+    <hyperlink ref="C2" location="movie_details!A1" display="详情表"/>
+    <hyperlink ref="C3" location="movie_starts!A1" display="影人表"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1271,158 +1244,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:5">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:5">
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="14.25"/>
-    <row r="5" ht="14.25" spans="2:5">
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="24.75" spans="2:5">
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="24.75" spans="2:5">
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="24.75" spans="2:5">
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" ht="24.75" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="24.75" spans="2:5">
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="14.25" spans="2:5">
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="概述!A1" display="返回目录"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1436,7 +1261,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="2:5">
@@ -1444,17 +1269,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" ht="14.25" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1462,111 +1287,123 @@
     <row r="4" ht="14.25"/>
     <row r="5" ht="14.25" spans="2:5">
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="14.25" spans="2:5">
       <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="14.25" spans="2:5">
       <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="14.25" spans="2:5">
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="14.25" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="14.25" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" ht="14.25" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" ht="14.25" spans="2:5">
+    <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" ht="14.25" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E13" s="4"/>
+    </row>
+    <row r="14" ht="14.25" spans="2:5">
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1577,20 +1414,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="2:5">
@@ -1598,17 +1435,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" ht="14.25" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1616,63 +1453,75 @@
     <row r="4" ht="14.25"/>
     <row r="5" ht="14.25" spans="2:5">
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="24.75" spans="2:5">
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="24.75" spans="2:5">
       <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="24.75" spans="2:5">
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="24.75" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="14.25" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/doubanmovie/data/数据字典.xlsx
+++ b/doubanmovie/data/数据字典.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27600" windowHeight="9270" tabRatio="833" activeTab="1"/>
+    <workbookView windowWidth="27600" windowHeight="12195" tabRatio="833" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="movie_details" sheetId="31" r:id="rId2"/>
     <sheet name="movie_starts" sheetId="33" r:id="rId3"/>
+    <sheet name="movie_list" sheetId="34" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="tbl_backgroud_feedback_apply">概述!#REF!</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>表分类</t>
   </si>
@@ -49,6 +50,12 @@
     <t>影人表</t>
   </si>
   <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>列表</t>
+  </si>
+  <si>
     <t>返回目录</t>
   </si>
   <si>
@@ -143,6 +150,9 @@
   </si>
   <si>
     <t>movieName</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -150,10 +160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -191,6 +201,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -206,39 +306,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,74 +336,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -342,13 +352,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +466,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,157 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,39 +585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -639,16 +616,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,6 +649,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -680,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,19 +702,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,113 +726,113 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,6 +854,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -855,6 +866,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -908,6 +922,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1178,7 +1201,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1190,13 +1213,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1204,37 +1227,42 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" location="movie_details!A1" display="详情表"/>
     <hyperlink ref="C3" location="movie_starts!A1" display="影人表"/>
+    <hyperlink ref="C4" location="movie_list!A1" display="列表"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1246,8 +1274,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1261,7 +1289,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="2:5">
@@ -1269,17 +1297,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" ht="14.25" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1287,121 +1315,121 @@
     <row r="4" ht="14.25"/>
     <row r="5" ht="14.25" spans="2:5">
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="14.25" spans="2:5">
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="14.25" spans="2:5">
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="14.25" spans="2:5">
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="14.25" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="14.25" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" ht="14.25" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" ht="14.25" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" ht="14.25" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" ht="14.25" spans="2:5">
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -1427,7 +1455,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="2:5">
@@ -1435,17 +1463,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" ht="14.25" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1453,73 +1481,73 @@
     <row r="4" ht="14.25"/>
     <row r="5" ht="14.25" spans="2:5">
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="24.75" spans="2:5">
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="24.75" spans="2:5">
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="24.75" spans="2:5">
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="24.75" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" ht="14.25" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -1530,4 +1558,141 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" ht="14.25"/>
+    <row r="5" ht="14.25" spans="2:5">
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" ht="24.75" spans="2:19">
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" ht="24.75" spans="2:5">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="24.75" spans="2:5">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="24.75" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" ht="14.25" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1" location="概述!A1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>